--- a/choices.xlsx
+++ b/choices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569017B5-5918-47A7-B07A-EC7C77F65F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1903FFA9-1FF9-4BC3-8109-E430A4C4422D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
   <si>
     <t>Category</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Simple</t>
   </si>
   <si>
-    <t>Supersample</t>
-  </si>
-  <si>
     <t>Fit eccentricity</t>
   </si>
   <si>
@@ -208,13 +205,37 @@
     <t>(2)+3rd order</t>
   </si>
   <si>
-    <t>922c mod</t>
-  </si>
-  <si>
     <t>(2)+2nd order</t>
   </si>
   <si>
     <t>GIT</t>
+  </si>
+  <si>
+    <t>Inline fudge tuning OK</t>
+  </si>
+  <si>
+    <t>Simple model OK</t>
+  </si>
+  <si>
+    <t>Supersample - may need to make more accurate</t>
+  </si>
+  <si>
+    <t>San</t>
+  </si>
+  <si>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>Swap linear correction and dark current</t>
+  </si>
+  <si>
+    <t>Seems best despite slightly lower on test</t>
+  </si>
+  <si>
+    <t>Revisit</t>
+  </si>
+  <si>
+    <t>3,4,5</t>
   </si>
 </sst>
 </file>
@@ -271,8 +292,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6CA98BC4-9283-42D5-A195-DA0C9C245AC9}" name="Table1" displayName="Table1" ref="A1:F21" totalsRowShown="0">
-  <autoFilter ref="A1:F21" xr:uid="{6CA98BC4-9283-42D5-A195-DA0C9C245AC9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6CA98BC4-9283-42D5-A195-DA0C9C245AC9}" name="Table1" displayName="Table1" ref="A1:F22" totalsRowShown="0">
+  <autoFilter ref="A1:F22" xr:uid="{6CA98BC4-9283-42D5-A195-DA0C9C245AC9}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B6616B63-F1E7-417B-975B-CF7294D71629}" name="Category"/>
     <tableColumn id="2" xr3:uid="{8F4FDD69-72A5-4F1F-ABA4-5AAD37F6314F}" name="Choice"/>
@@ -286,12 +307,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:K6" totalsRowShown="0">
-  <autoFilter ref="A1:K6" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:M9" totalsRowShown="0">
+  <autoFilter ref="A1:M9" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{CD0C5B4F-9DA5-4851-8175-AEDC1F5441EB}" name="ID"/>
     <tableColumn id="2" xr3:uid="{96CE9708-90D1-445F-AD73-473D0FFF2A0B}" name="GIT"/>
+    <tableColumn id="12" xr3:uid="{F6596AEB-9D64-4014-88C3-3FBD71A31D55}" name="Over"/>
     <tableColumn id="3" xr3:uid="{AF760907-A5AD-4359-8D65-D2DD7329FFA6}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{C61FEF7C-D6CC-453B-B43F-D3647FF606A7}" name="San"/>
     <tableColumn id="5" xr3:uid="{ADA1A98F-3920-41D3-BAA1-B8AE26FFD47F}" name="CV loc"/>
     <tableColumn id="8" xr3:uid="{6CF4D6D5-8CEB-444F-A2A2-3A2A90BFAC66}" name="RMSF loc"/>
     <tableColumn id="10" xr3:uid="{36A8478E-9821-4ACA-9D75-7D077500894E}" name="RMSA loc"/>
@@ -602,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BDE5C8-CEC6-4FD1-A927-959E65EB6722}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,10 +649,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -646,10 +669,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -660,10 +683,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -674,10 +697,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -688,13 +711,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -705,10 +728,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -722,7 +745,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -733,10 +756,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -750,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -764,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -775,10 +798,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -792,7 +815,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -803,10 +826,10 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -814,111 +837,131 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -931,143 +974,244 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421DFAC1-2EB9-4491-B20E-B2D987A1FB50}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.85546875" customWidth="1"/>
-    <col min="12" max="12" width="6" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.85546875" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2">
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2">
         <v>0.41249999999999998</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.41270000000000001</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.39400000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3">
         <v>0.41739999999999999</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>296.60000000000002</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>498.7</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.41770000000000002</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>297.3</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>497.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>0.42020000000000002</v>
+      </c>
+      <c r="J4">
+        <v>265.10000000000002</v>
+      </c>
+      <c r="K4">
+        <v>496.3</v>
+      </c>
+      <c r="L4">
+        <v>0.39200000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5">
+        <v>0.42209999999999998</v>
+      </c>
+      <c r="J5">
+        <v>238.5</v>
+      </c>
+      <c r="K5">
+        <v>495.4</v>
+      </c>
+      <c r="L5">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="M5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6">
+        <v>0.41170000000000001</v>
+      </c>
+      <c r="J6">
+        <v>273.60000000000002</v>
+      </c>
+      <c r="K6">
+        <v>518.4</v>
+      </c>
+      <c r="L6">
+        <v>0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/choices.xlsx
+++ b/choices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1903FFA9-1FF9-4BC3-8109-E430A4C4422D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE3F110-C084-4EC9-8BF0-2E1501138B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
   <si>
     <t>Category</t>
   </si>
@@ -236,14 +236,34 @@
   </si>
   <si>
     <t>3,4,5</t>
+  </si>
+  <si>
+    <t>3d84</t>
+  </si>
+  <si>
+    <t>(4)+ecc</t>
+  </si>
+  <si>
+    <t>(4)+no linear correction</t>
+  </si>
+  <si>
+    <t>(4)+correction factor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -271,9 +291,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,7 +649,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +773,7 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
@@ -794,7 +815,7 @@
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
@@ -850,7 +871,7 @@
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
@@ -864,7 +885,7 @@
       <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C16" t="s">
@@ -977,7 +998,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,10 +1178,10 @@
       <c r="I5">
         <v>0.42209999999999998</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>238.5</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>495.4</v>
       </c>
       <c r="L5">
@@ -1203,15 +1224,69 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7">
+        <v>0.42180000000000001</v>
+      </c>
+      <c r="J7">
+        <v>234.5</v>
+      </c>
+      <c r="K7">
+        <v>496.8</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8">
+        <v>0.41880000000000001</v>
+      </c>
+      <c r="J8">
+        <v>260.39999999999998</v>
+      </c>
+      <c r="K8">
+        <v>499.1</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/choices.xlsx
+++ b/choices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE3F110-C084-4EC9-8BF0-2E1501138B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B68A89-00F7-45F6-B4CB-06244BD8C3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>Category</t>
   </si>
@@ -248,6 +248,60 @@
   </si>
   <si>
     <t>(4)+correction factor</t>
+  </si>
+  <si>
+    <t>f9fb</t>
+  </si>
+  <si>
+    <t>(4)+ecc tweaked</t>
+  </si>
+  <si>
+    <t>No correction factor is needed</t>
+  </si>
+  <si>
+    <t>Huh? Still conclude we need it</t>
+  </si>
+  <si>
+    <t>No eccentricity</t>
+  </si>
+  <si>
+    <t>(4)+don't mask hot</t>
+  </si>
+  <si>
+    <t>(4)+don't remove background rows</t>
+  </si>
+  <si>
+    <t>(4)+no flat field correction</t>
+  </si>
+  <si>
+    <t>Doesn't matter on train, bad on test</t>
+  </si>
+  <si>
+    <t>(4)+sigma clip 10</t>
+  </si>
+  <si>
+    <t>(4)+sigma clip 4</t>
+  </si>
+  <si>
+    <t>(4)+sigma clip 6</t>
+  </si>
+  <si>
+    <t>(5)+12 background rows</t>
+  </si>
+  <si>
+    <t>Makes no sense...</t>
+  </si>
+  <si>
+    <t>12,13,14</t>
+  </si>
+  <si>
+    <t>12,13,14 - weird…</t>
+  </si>
+  <si>
+    <t>(5)+4 background rows</t>
+  </si>
+  <si>
+    <t>XXX</t>
   </si>
 </sst>
 </file>
@@ -314,7 +368,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6CA98BC4-9283-42D5-A195-DA0C9C245AC9}" name="Table1" displayName="Table1" ref="A1:F22" totalsRowShown="0">
-  <autoFilter ref="A1:F22" xr:uid="{6CA98BC4-9283-42D5-A195-DA0C9C245AC9}"/>
+  <autoFilter ref="A1:F22" xr:uid="{6CA98BC4-9283-42D5-A195-DA0C9C245AC9}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Verify"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B6616B63-F1E7-417B-975B-CF7294D71629}" name="Category"/>
     <tableColumn id="2" xr3:uid="{8F4FDD69-72A5-4F1F-ABA4-5AAD37F6314F}" name="Choice"/>
@@ -328,8 +388,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:M9" totalsRowShown="0">
-  <autoFilter ref="A1:M9" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:M19" totalsRowShown="0">
+  <autoFilter ref="A1:M19" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{CD0C5B4F-9DA5-4851-8175-AEDC1F5441EB}" name="ID"/>
     <tableColumn id="2" xr3:uid="{96CE9708-90D1-445F-AD73-473D0FFF2A0B}" name="GIT"/>
@@ -649,7 +709,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -700,7 +760,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
@@ -709,8 +769,14 @@
       <c r="D3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -724,7 +790,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -741,7 +807,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -752,7 +818,13 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>68</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -766,21 +838,33 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>52</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -811,21 +895,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -867,35 +957,47 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="E15">
+        <v>6.5</v>
+      </c>
+      <c r="F15">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -915,7 +1017,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -929,7 +1031,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -943,7 +1045,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -957,7 +1059,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -971,7 +1073,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -995,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421DFAC1-2EB9-4491-B20E-B2D987A1FB50}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1108,7 @@
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -1175,7 +1277,7 @@
       <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>0.42209999999999998</v>
       </c>
       <c r="J5" s="2">
@@ -1184,7 +1286,7 @@
       <c r="K5" s="2">
         <v>495.4</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>0.39100000000000001</v>
       </c>
       <c r="M5" t="s">
@@ -1248,33 +1350,39 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
         <v>27</v>
       </c>
       <c r="I8">
-        <v>0.41880000000000001</v>
+        <v>0.41060000000000002</v>
       </c>
       <c r="J8">
-        <v>260.39999999999998</v>
+        <v>275.8</v>
       </c>
       <c r="K8">
-        <v>499.1</v>
+        <v>521.6</v>
+      </c>
+      <c r="L8">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="M8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -1283,10 +1391,321 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9">
+        <v>0.4204</v>
+      </c>
+      <c r="J9">
+        <v>255.6</v>
+      </c>
+      <c r="K9">
+        <v>497</v>
+      </c>
+      <c r="L9">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="M9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10">
+        <v>0.41880000000000001</v>
+      </c>
+      <c r="J10">
+        <v>260.39999999999998</v>
+      </c>
+      <c r="K10">
+        <v>499.1</v>
+      </c>
+      <c r="L10">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="M10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11">
+        <v>0.42349999999999999</v>
+      </c>
+      <c r="J11">
+        <v>219.8</v>
+      </c>
+      <c r="K11">
+        <v>495.7</v>
+      </c>
+      <c r="L11">
+        <v>0.37</v>
+      </c>
+      <c r="M11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12">
+        <v>0.4219</v>
+      </c>
+      <c r="J12">
+        <v>235.6</v>
+      </c>
+      <c r="K12">
+        <v>496.9</v>
+      </c>
+      <c r="L12">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="M12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13">
+        <v>0.42009999999999997</v>
+      </c>
+      <c r="J13">
+        <v>261.89999999999998</v>
+      </c>
+      <c r="K13">
+        <v>495.8</v>
+      </c>
+      <c r="L13">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="M13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14">
+        <v>0.4214</v>
+      </c>
+      <c r="J14">
+        <v>243.6</v>
+      </c>
+      <c r="K14">
+        <v>496.6</v>
+      </c>
+      <c r="L14">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15">
+        <v>0.42309999999999998</v>
+      </c>
+      <c r="J15">
+        <v>222.2</v>
+      </c>
+      <c r="K15">
+        <v>496.5</v>
+      </c>
+      <c r="L15">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16">
+        <v>0.4229</v>
+      </c>
+      <c r="J16">
+        <v>229.4</v>
+      </c>
+      <c r="K16">
+        <v>495.4</v>
+      </c>
+      <c r="L16">
+        <v>0.36</v>
+      </c>
+      <c r="M16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17">
+        <v>0.4194</v>
+      </c>
+      <c r="J17">
+        <v>226.8</v>
+      </c>
+      <c r="K17">
+        <v>506.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18">
+        <v>0.42209999999999998</v>
+      </c>
+      <c r="J18">
+        <v>231.8</v>
+      </c>
+      <c r="K18">
+        <v>496.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19">
+        <v>0.42159999999999997</v>
+      </c>
+      <c r="G19">
+        <v>237.4</v>
+      </c>
+      <c r="H19">
+        <v>496.7</v>
       </c>
     </row>
   </sheetData>

--- a/choices.xlsx
+++ b/choices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B68A89-00F7-45F6-B4CB-06244BD8C3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DA95BB-34DA-4282-A106-4475A3EB0063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
@@ -301,7 +301,7 @@
     <t>(5)+4 background rows</t>
   </si>
   <si>
-    <t>XXX</t>
+    <t>6212</t>
   </si>
 </sst>
 </file>
@@ -345,10 +345,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1100,7 +1101,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,7 +1687,7 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C19" t="s">
@@ -1706,6 +1707,15 @@
       </c>
       <c r="H19">
         <v>496.7</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.42209999999999998</v>
+      </c>
+      <c r="J19" s="3">
+        <v>238.5</v>
+      </c>
+      <c r="K19" s="3">
+        <v>495.4</v>
       </c>
     </row>
   </sheetData>

--- a/choices.xlsx
+++ b/choices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DA95BB-34DA-4282-A106-4475A3EB0063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067655D0-C2FB-4423-96C9-44CA9A89BB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="94">
   <si>
     <t>Category</t>
   </si>
@@ -302,6 +302,12 @@
   </si>
   <si>
     <t>6212</t>
+  </si>
+  <si>
+    <t>6212 qualified</t>
+  </si>
+  <si>
+    <t>(17)+refactored transit</t>
   </si>
 </sst>
 </file>
@@ -389,8 +395,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:M19" totalsRowShown="0">
-  <autoFilter ref="A1:M19" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:M20" totalsRowShown="0">
+  <autoFilter ref="A1:M20" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{CD0C5B4F-9DA5-4851-8175-AEDC1F5441EB}" name="ID"/>
     <tableColumn id="2" xr3:uid="{96CE9708-90D1-445F-AD73-473D0FFF2A0B}" name="GIT"/>
@@ -1098,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421DFAC1-2EB9-4491-B20E-B2D987A1FB50}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,16 +1284,16 @@
       <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>0.42209999999999998</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>238.5</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <v>495.4</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3">
         <v>0.39100000000000001</v>
       </c>
       <c r="M5" t="s">
@@ -1631,7 +1637,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1657,7 +1663,7 @@
         <v>506.3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1683,7 +1689,7 @@
         <v>496.8</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1699,23 +1705,43 @@
       <c r="E19" t="s">
         <v>25</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>0.42159999999999997</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>237.4</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>496.7</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>0.42209999999999998</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>238.5</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>495.4</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="M19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/choices.xlsx
+++ b/choices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067655D0-C2FB-4423-96C9-44CA9A89BB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF51666-5862-42BD-814E-6FF1C80D3EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="96">
   <si>
     <t>Category</t>
   </si>
@@ -308,6 +308,12 @@
   </si>
   <si>
     <t>(17)+refactored transit</t>
+  </si>
+  <si>
+    <t>3793</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1113,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1734,6 +1740,9 @@
       <c r="A20">
         <v>18</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="C20" t="s">
         <v>27</v>
       </c>
@@ -1742,6 +1751,30 @@
       </c>
       <c r="E20" t="s">
         <v>25</v>
+      </c>
+      <c r="F20">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="G20">
+        <v>228.9</v>
+      </c>
+      <c r="H20">
+        <v>494.9</v>
+      </c>
+      <c r="I20">
+        <v>0.42349999999999999</v>
+      </c>
+      <c r="J20">
+        <v>220.6</v>
+      </c>
+      <c r="K20">
+        <v>495.5</v>
+      </c>
+      <c r="L20">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/choices.xlsx
+++ b/choices.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF51666-5862-42BD-814E-6FF1C80D3EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAC3FC3-71D7-4078-BE5F-B5D5DBF61442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
   <sheets>
     <sheet name="Choices" sheetId="1" r:id="rId1"/>
     <sheet name="Submissions" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="118">
   <si>
     <t>Category</t>
   </si>
@@ -313,7 +314,73 @@
     <t>3793</t>
   </si>
   <si>
-    <t>???</t>
+    <t>(18)+Kepler</t>
+  </si>
+  <si>
+    <t>dc1c</t>
+  </si>
+  <si>
+    <t>dc1c qualified, submission scored are always weird</t>
+  </si>
+  <si>
+    <t>Quick notes for first GP</t>
+  </si>
+  <si>
+    <t>RMS AIRS</t>
+  </si>
+  <si>
+    <t>RMS FGS</t>
+  </si>
+  <si>
+    <t>Leaderboard</t>
+  </si>
+  <si>
+    <t>Score loc</t>
+  </si>
+  <si>
+    <t>50% simple, 50% GP</t>
+  </si>
+  <si>
+    <t>50% GP, 50% simple</t>
+  </si>
+  <si>
+    <t>First 500 local GP</t>
+  </si>
+  <si>
+    <t>First 500 local simple</t>
+  </si>
+  <si>
+    <t>100% simple</t>
+  </si>
+  <si>
+    <t>Timing</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>2 parallel</t>
+  </si>
+  <si>
+    <t>4 parallel</t>
+  </si>
+  <si>
+    <t>7 parallel</t>
+  </si>
+  <si>
+    <t>4 no parallel</t>
+  </si>
+  <si>
+    <t>Linux lim=1</t>
+  </si>
+  <si>
+    <t>Sanity check</t>
+  </si>
+  <si>
+    <t>Two above cvombined</t>
   </si>
 </sst>
 </file>
@@ -345,12 +412,23 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -361,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,8 +479,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:M20" totalsRowShown="0">
-  <autoFilter ref="A1:M20" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:M21" totalsRowShown="0">
+  <autoFilter ref="A1:M21" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{CD0C5B4F-9DA5-4851-8175-AEDC1F5441EB}" name="ID"/>
     <tableColumn id="2" xr3:uid="{96CE9708-90D1-445F-AD73-473D0FFF2A0B}" name="GIT"/>
@@ -1110,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421DFAC1-2EB9-4491-B20E-B2D987A1FB50}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,16 +1368,16 @@
       <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5">
         <v>0.42209999999999998</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5">
         <v>238.5</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5">
         <v>495.4</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5">
         <v>0.39100000000000001</v>
       </c>
       <c r="M5" t="s">
@@ -1711,25 +1789,25 @@
       <c r="E19" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
         <v>0.42159999999999997</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19">
         <v>237.4</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19">
         <v>496.7</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19">
         <v>0.42209999999999998</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19">
         <v>238.5</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19">
         <v>495.4</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19">
         <v>0.39100000000000001</v>
       </c>
       <c r="M19" t="s">
@@ -1771,10 +1849,48 @@
         <v>495.5</v>
       </c>
       <c r="L20">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="M20" t="s">
+        <v>3.379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>95</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.42230000000000001</v>
+      </c>
+      <c r="G21" s="2">
+        <v>236.6</v>
+      </c>
+      <c r="H21" s="2">
+        <v>495.2</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.42049999999999998</v>
+      </c>
+      <c r="J21" s="2">
+        <v>229.5</v>
+      </c>
+      <c r="K21" s="2">
+        <v>501.8</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.372</v>
+      </c>
+      <c r="M21" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1783,4 +1899,202 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBBA9B5-89A0-4EDA-AA5C-6A06A9856157}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="9" max="10" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="C4">
+        <v>249.9</v>
+      </c>
+      <c r="D4">
+        <v>494.2</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4">
+        <f>2+51/60</f>
+        <v>2.85</v>
+      </c>
+      <c r="K4">
+        <f>1+25/60</f>
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="N4">
+        <f>K4/4</f>
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5">
+        <v>0.51339999999999997</v>
+      </c>
+      <c r="C5">
+        <v>243.9</v>
+      </c>
+      <c r="D5">
+        <v>194.6</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5">
+        <f>1+32/60</f>
+        <v>1.5333333333333332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.42049999999999998</v>
+      </c>
+      <c r="C6" s="3">
+        <v>229.5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>501.8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.372</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6">
+        <f>59/60</f>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="K6">
+        <f>1+41/60</f>
+        <v>1.6833333333333333</v>
+      </c>
+      <c r="L6">
+        <f>26/60</f>
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="C7">
+        <v>234.6</v>
+      </c>
+      <c r="D7">
+        <v>388.6</v>
+      </c>
+      <c r="E7">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C8">
+        <v>228.3</v>
+      </c>
+      <c r="D8">
+        <v>368.6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8">
+        <f>1+37/60</f>
+        <v>1.6166666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9">
+        <f>B7+B8-B6</f>
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="E9" t="e">
+        <f>E7+E8-E6</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/choices.xlsx
+++ b/choices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAC3FC3-71D7-4078-BE5F-B5D5DBF61442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2687CCD2-8679-4D59-ACC0-3A61C386D419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="117">
   <si>
     <t>Category</t>
   </si>
@@ -375,9 +375,6 @@
   </si>
   <si>
     <t>Linux lim=1</t>
-  </si>
-  <si>
-    <t>Sanity check</t>
   </si>
   <si>
     <t>Two above cvombined</t>
@@ -1903,10 +1900,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBBA9B5-89A0-4EDA-AA5C-6A06A9856157}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1915,12 +1912,12 @@
     <col min="9" max="10" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>102</v>
       </c>
@@ -1946,7 +1943,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -1977,8 +1974,12 @@
         <f>K4/4</f>
         <v>0.35416666666666669</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <f>60*K4</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -2002,7 +2003,7 @@
         <v>1.5333333333333332</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -2037,7 +2038,7 @@
         <v>0.43333333333333335</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -2054,7 +2055,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -2067,8 +2068,8 @@
       <c r="D8">
         <v>368.6</v>
       </c>
-      <c r="E8" t="s">
-        <v>116</v>
+      <c r="E8">
+        <v>0.23200000000000001</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -2081,17 +2082,39 @@
         <v>1.6166666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9">
         <f>B7+B8-B6</f>
         <v>0.51749999999999996</v>
       </c>
-      <c r="E9" t="e">
+      <c r="E9">
         <f>E7+E8-E6</f>
-        <v>#VALUE!</v>
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="S9">
+        <f>87/126*3/2</f>
+        <v>1.0357142857142856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <f>73/87*4/3</f>
+        <v>1.1187739463601531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <f>3/4</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <f>73/87</f>
+        <v>0.83908045977011492</v>
       </c>
     </row>
   </sheetData>

--- a/choices.xlsx
+++ b/choices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2687CCD2-8679-4D59-ACC0-3A61C386D419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082D9E46-9C03-49AE-8DB2-8C7E224A30C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
   <sheets>
     <sheet name="Choices" sheetId="1" r:id="rId1"/>
@@ -1187,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421DFAC1-2EB9-4491-B20E-B2D987A1FB50}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21:L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,7 +1846,7 @@
         <v>495.5</v>
       </c>
       <c r="L20">
-        <v>3.379</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1902,7 +1902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBBA9B5-89A0-4EDA-AA5C-6A06A9856157}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>

--- a/choices.xlsx
+++ b/choices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082D9E46-9C03-49AE-8DB2-8C7E224A30C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4855CD2E-3F28-49CB-BB34-4879C8E83F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="123">
   <si>
     <t>Category</t>
   </si>
@@ -378,6 +378,24 @@
   </si>
   <si>
     <t>Two above cvombined</t>
+  </si>
+  <si>
+    <t>7262</t>
+  </si>
+  <si>
+    <t>(19)+No bad planet in train</t>
+  </si>
+  <si>
+    <t>(20)+No background removal</t>
+  </si>
+  <si>
+    <t>(21)+Time binning before full sensor</t>
+  </si>
+  <si>
+    <t>a24c</t>
+  </si>
+  <si>
+    <t>ce9e</t>
   </si>
 </sst>
 </file>
@@ -476,8 +494,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:M21" totalsRowShown="0">
-  <autoFilter ref="A1:M21" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:M24" totalsRowShown="0">
+  <autoFilter ref="A1:M24" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{CD0C5B4F-9DA5-4851-8175-AEDC1F5441EB}" name="ID"/>
     <tableColumn id="2" xr3:uid="{96CE9708-90D1-445F-AD73-473D0FFF2A0B}" name="GIT"/>
@@ -1185,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421DFAC1-2EB9-4491-B20E-B2D987A1FB50}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,7 +1799,7 @@
         <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
@@ -1888,6 +1906,84 @@
       </c>
       <c r="M21" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22">
+        <v>0.42230000000000001</v>
+      </c>
+      <c r="G22">
+        <v>236.3</v>
+      </c>
+      <c r="H22">
+        <v>495.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23">
+        <v>0.42259999999999998</v>
+      </c>
+      <c r="G23">
+        <v>221</v>
+      </c>
+      <c r="H23">
+        <v>498.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24">
+        <v>0.42259999999999998</v>
+      </c>
+      <c r="G24">
+        <v>221.1</v>
+      </c>
+      <c r="H24">
+        <v>498.4</v>
       </c>
     </row>
   </sheetData>
@@ -1903,7 +1999,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/choices.xlsx
+++ b/choices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4855CD2E-3F28-49CB-BB34-4879C8E83F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D643EE0A-C6B4-4BD8-9BE0-4C2325B5B9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Choices" sheetId="1" r:id="rId1"/>
     <sheet name="Submissions" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="145">
   <si>
     <t>Category</t>
   </si>
@@ -396,6 +397,72 @@
   </si>
   <si>
     <t>ce9e</t>
+  </si>
+  <si>
+    <t>Newly set up GP</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Local all</t>
+  </si>
+  <si>
+    <t>RMSF</t>
+  </si>
+  <si>
+    <t>RMSA</t>
+  </si>
+  <si>
+    <t>Kaggle all</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>Local 20 (trained all)</t>
+  </si>
+  <si>
+    <t>Kaggle 20 (trained all)</t>
+  </si>
+  <si>
+    <t>running v1</t>
+  </si>
+  <si>
+    <t>Background removal seems rather critical…but the submissions are so meaningless</t>
+  </si>
+  <si>
+    <t>GP/GP</t>
+  </si>
+  <si>
+    <t>simple/GP</t>
+  </si>
+  <si>
+    <t>GP/simple</t>
+  </si>
+  <si>
+    <t>20 CV</t>
+  </si>
+  <si>
+    <t>simple/simple</t>
+  </si>
+  <si>
+    <t>GP/GP pred</t>
+  </si>
+  <si>
+    <t>326a</t>
+  </si>
+  <si>
+    <t>(22)+initial GP</t>
+  </si>
+  <si>
+    <t>(23)+4 iters</t>
+  </si>
+  <si>
+    <t>CV20</t>
   </si>
 </sst>
 </file>
@@ -494,14 +561,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:M24" totalsRowShown="0">
-  <autoFilter ref="A1:M24" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:N26" totalsRowShown="0">
+  <autoFilter ref="A1:N26" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{CD0C5B4F-9DA5-4851-8175-AEDC1F5441EB}" name="ID"/>
     <tableColumn id="2" xr3:uid="{96CE9708-90D1-445F-AD73-473D0FFF2A0B}" name="GIT"/>
     <tableColumn id="12" xr3:uid="{F6596AEB-9D64-4014-88C3-3FBD71A31D55}" name="Over"/>
     <tableColumn id="3" xr3:uid="{AF760907-A5AD-4359-8D65-D2DD7329FFA6}" name="Description"/>
     <tableColumn id="4" xr3:uid="{C61FEF7C-D6CC-453B-B43F-D3647FF606A7}" name="San"/>
+    <tableColumn id="14" xr3:uid="{430D115E-932D-4B28-BA1A-9F3F8BD0393B}" name="CV20"/>
     <tableColumn id="5" xr3:uid="{ADA1A98F-3920-41D3-BAA1-B8AE26FFD47F}" name="CV loc"/>
     <tableColumn id="8" xr3:uid="{6CF4D6D5-8CEB-444F-A2A2-3A2A90BFAC66}" name="RMSF loc"/>
     <tableColumn id="10" xr3:uid="{36A8478E-9821-4ACA-9D75-7D077500894E}" name="RMSA loc"/>
@@ -1203,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421DFAC1-2EB9-4491-B20E-B2D987A1FB50}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,18 +1284,19 @@
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.85546875" customWidth="1"/>
-    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.85546875" customWidth="1"/>
+    <col min="15" max="15" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -1244,31 +1313,34 @@
         <v>64</v>
       </c>
       <c r="F1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>51</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>43</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1284,20 +1356,20 @@
       <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.41249999999999998</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.41270000000000001</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.39400000000000002</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1313,32 +1385,33 @@
       <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1"/>
+      <c r="G3">
         <v>0.41739999999999999</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>296.60000000000002</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>498.7</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.41770000000000002</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>297.3</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>497.7</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.39200000000000002</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1354,20 +1427,21 @@
       <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I4">
+      <c r="F4" s="1"/>
+      <c r="J4">
         <v>0.42020000000000002</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>265.10000000000002</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>496.3</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.39200000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1383,23 +1457,24 @@
       <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I5">
+      <c r="F5" s="1"/>
+      <c r="J5">
         <v>0.42209999999999998</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>238.5</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>495.4</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.39100000000000001</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1415,20 +1490,21 @@
       <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I6">
+      <c r="F6" s="1"/>
+      <c r="J6">
         <v>0.41170000000000001</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>273.60000000000002</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>518.4</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.38200000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1444,17 +1520,18 @@
       <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I7">
+      <c r="F7" s="1"/>
+      <c r="J7">
         <v>0.42180000000000001</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>234.5</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>496.8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6.5</v>
       </c>
@@ -1470,23 +1547,23 @@
       <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.41060000000000002</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>275.8</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>521.6</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.38100000000000001</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1502,23 +1579,24 @@
       <c r="E9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I9">
+      <c r="F9" s="1"/>
+      <c r="J9">
         <v>0.4204</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>255.6</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>497</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.39200000000000002</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1534,23 +1612,24 @@
       <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I10">
+      <c r="F10" s="1"/>
+      <c r="J10">
         <v>0.41880000000000001</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>260.39999999999998</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>499.1</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.38900000000000001</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1566,23 +1645,24 @@
       <c r="E11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I11">
+      <c r="F11" s="1"/>
+      <c r="J11">
         <v>0.42349999999999999</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>219.8</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>495.7</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.37</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1598,23 +1678,24 @@
       <c r="E12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I12">
+      <c r="F12" s="1"/>
+      <c r="J12">
         <v>0.4219</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>235.6</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>496.9</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.35099999999999998</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1630,23 +1711,24 @@
       <c r="E13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I13">
+      <c r="F13" s="1"/>
+      <c r="J13">
         <v>0.42009999999999997</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>261.89999999999998</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>495.8</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.36399999999999999</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1662,20 +1744,21 @@
       <c r="E14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I14">
+      <c r="F14" s="1"/>
+      <c r="J14">
         <v>0.4214</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>243.6</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>496.6</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1691,20 +1774,21 @@
       <c r="E15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I15">
+      <c r="F15" s="1"/>
+      <c r="J15">
         <v>0.42309999999999998</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>222.2</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>496.5</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.37</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1720,23 +1804,24 @@
       <c r="E16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I16">
+      <c r="F16" s="1"/>
+      <c r="J16">
         <v>0.4229</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>229.4</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>495.4</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.36</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1752,17 +1837,18 @@
       <c r="E17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I17">
+      <c r="F17" s="1"/>
+      <c r="J17">
         <v>0.4194</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>226.8</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>506.3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1778,17 +1864,18 @@
       <c r="E18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I18">
+      <c r="F18" s="1"/>
+      <c r="J18">
         <v>0.42209999999999998</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>231.8</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>496.8</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1804,32 +1891,32 @@
       <c r="E19" t="s">
         <v>25</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.42159999999999997</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>237.4</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>496.7</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.42209999999999998</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>238.5</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>495.4</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.39100000000000001</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1845,29 +1932,29 @@
       <c r="E20" t="s">
         <v>25</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.42299999999999999</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>228.9</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>494.9</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.42349999999999999</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>220.6</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>495.5</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.379</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1883,32 +1970,32 @@
       <c r="E21" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G21" s="2">
         <v>0.42230000000000001</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>236.6</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>495.2</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
         <v>0.42049999999999998</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="2">
         <v>229.5</v>
       </c>
-      <c r="K21" s="2">
+      <c r="L21" s="2">
         <v>501.8</v>
       </c>
-      <c r="L21" s="2">
+      <c r="M21" s="2">
         <v>0.372</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1924,17 +2011,17 @@
       <c r="E22" t="s">
         <v>25</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.42230000000000001</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>236.3</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>495.4</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1950,17 +2037,17 @@
       <c r="E23" t="s">
         <v>25</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.42259999999999998</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>221</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>498.4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1976,14 +2063,90 @@
       <c r="E24" t="s">
         <v>25</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.42259999999999998</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>221.1</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>498.4</v>
+      </c>
+      <c r="J24">
+        <v>0.42259999999999998</v>
+      </c>
+      <c r="K24">
+        <v>223.1</v>
+      </c>
+      <c r="L24">
+        <v>497.9</v>
+      </c>
+      <c r="M24">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="N24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25">
+        <v>0.6119</v>
+      </c>
+      <c r="G25">
+        <v>0.59909999999999997</v>
+      </c>
+      <c r="H25">
+        <v>218</v>
+      </c>
+      <c r="I25">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="M25">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <v>0.61070000000000002</v>
+      </c>
+      <c r="G26">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="H26">
+        <v>219.7</v>
+      </c>
+      <c r="I26">
+        <v>160.30000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1996,10 +2159,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBBA9B5-89A0-4EDA-AA5C-6A06A9856157}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2202,15 +2365,162 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
       <c r="S13">
         <f>3/4</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14">
+        <v>0.61219999999999997</v>
+      </c>
       <c r="S14">
         <f>73/87</f>
         <v>0.83908045977011492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15">
+        <f>B16+B17-B18</f>
+        <v>0.61230000000000007</v>
+      </c>
+      <c r="C15">
+        <f>C16+C17-C18</f>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16">
+        <v>0.53759999999999997</v>
+      </c>
+      <c r="C16">
+        <v>0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="C17">
+        <v>0.42799999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18">
+        <v>0.46829999999999999</v>
+      </c>
+      <c r="C18">
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5228B9F-F67D-4F93-A400-3CF5199941C6}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4">
+        <v>0.59909999999999997</v>
+      </c>
+      <c r="C4">
+        <v>222.4</v>
+      </c>
+      <c r="D4">
+        <v>189.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5">
+        <v>0.6119</v>
+      </c>
+      <c r="C5">
+        <v>126.3</v>
+      </c>
+      <c r="D5">
+        <v>79.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="C6">
+        <v>126.3</v>
+      </c>
+      <c r="D6">
+        <v>79.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/choices.xlsx
+++ b/choices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D643EE0A-C6B4-4BD8-9BE0-4C2325B5B9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806A9E3F-7D94-4630-8EEA-BCD600572EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="149">
   <si>
     <t>Category</t>
   </si>
@@ -463,6 +463,18 @@
   </si>
   <si>
     <t>CV20</t>
+  </si>
+  <si>
+    <t>CV20K</t>
+  </si>
+  <si>
+    <t>RUNNING</t>
+  </si>
+  <si>
+    <t>7838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -561,9 +573,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:N26" totalsRowShown="0">
-  <autoFilter ref="A1:N26" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:O27" totalsRowShown="0">
+  <autoFilter ref="A1:O27" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{CD0C5B4F-9DA5-4851-8175-AEDC1F5441EB}" name="ID"/>
     <tableColumn id="2" xr3:uid="{96CE9708-90D1-445F-AD73-473D0FFF2A0B}" name="GIT"/>
     <tableColumn id="12" xr3:uid="{F6596AEB-9D64-4014-88C3-3FBD71A31D55}" name="Over"/>
@@ -573,6 +585,7 @@
     <tableColumn id="5" xr3:uid="{ADA1A98F-3920-41D3-BAA1-B8AE26FFD47F}" name="CV loc"/>
     <tableColumn id="8" xr3:uid="{6CF4D6D5-8CEB-444F-A2A2-3A2A90BFAC66}" name="RMSF loc"/>
     <tableColumn id="10" xr3:uid="{36A8478E-9821-4ACA-9D75-7D077500894E}" name="RMSA loc"/>
+    <tableColumn id="15" xr3:uid="{4872B848-2CDF-4034-A7D8-381009C570B8}" name="CV20K"/>
     <tableColumn id="6" xr3:uid="{6CF5D5A7-DD58-4784-AE79-32A028248CBE}" name="CV kag"/>
     <tableColumn id="9" xr3:uid="{C287B71C-494C-4903-93AA-2F5669CE90AC}" name="RMSF kag"/>
     <tableColumn id="11" xr3:uid="{060A4CB9-C965-40F8-B5CF-1088C09879A9}" name="RMSA kag"/>
@@ -1271,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421DFAC1-2EB9-4491-B20E-B2D987A1FB50}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,15 +1301,16 @@
     <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.85546875" customWidth="1"/>
-    <col min="15" max="15" width="6" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.85546875" customWidth="1"/>
+    <col min="16" max="16" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -1325,22 +1339,25 @@
         <v>49</v>
       </c>
       <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>51</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>43</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1359,17 +1376,17 @@
       <c r="G2">
         <v>0.41249999999999998</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.41270000000000001</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.39400000000000002</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1395,23 +1412,23 @@
       <c r="I3">
         <v>498.7</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.41770000000000002</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>297.3</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>497.7</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.39200000000000002</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1428,20 +1445,20 @@
         <v>25</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="J4">
+      <c r="K4">
         <v>0.42020000000000002</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>265.10000000000002</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>496.3</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.39200000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1458,23 +1475,23 @@
         <v>27</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="J5">
+      <c r="K5">
         <v>0.42209999999999998</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>238.5</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>495.4</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.39100000000000001</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1491,20 +1508,20 @@
         <v>27</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="J6">
+      <c r="K6">
         <v>0.41170000000000001</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>273.60000000000002</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>518.4</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.38200000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1521,17 +1538,17 @@
         <v>27</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="J7">
+      <c r="K7">
         <v>0.42180000000000001</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>234.5</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>496.8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6.5</v>
       </c>
@@ -1547,23 +1564,23 @@
       <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.41060000000000002</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>275.8</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>521.6</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.38100000000000001</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1580,23 +1597,23 @@
         <v>27</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="J9">
+      <c r="K9">
         <v>0.4204</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>255.6</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>497</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.39200000000000002</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1613,23 +1630,23 @@
         <v>27</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="J10">
+      <c r="K10">
         <v>0.41880000000000001</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>260.39999999999998</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>499.1</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.38900000000000001</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1646,23 +1663,23 @@
         <v>27</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="J11">
+      <c r="K11">
         <v>0.42349999999999999</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>219.8</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>495.7</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.37</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1679,23 +1696,23 @@
         <v>27</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="J12">
+      <c r="K12">
         <v>0.4219</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>235.6</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>496.9</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.35099999999999998</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1712,23 +1729,23 @@
         <v>27</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="J13">
+      <c r="K13">
         <v>0.42009999999999997</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>261.89999999999998</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>495.8</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.36399999999999999</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1745,20 +1762,20 @@
         <v>27</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="J14">
+      <c r="K14">
         <v>0.4214</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>243.6</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>496.6</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1775,20 +1792,20 @@
         <v>27</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="J15">
+      <c r="K15">
         <v>0.42309999999999998</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>222.2</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>496.5</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.37</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1805,23 +1822,23 @@
         <v>27</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="J16">
+      <c r="K16">
         <v>0.4229</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>229.4</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>495.4</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.36</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1838,17 +1855,17 @@
         <v>27</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="J17">
+      <c r="K17">
         <v>0.4194</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>226.8</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>506.3</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1865,17 +1882,17 @@
         <v>27</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="J18">
+      <c r="K18">
         <v>0.42209999999999998</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>231.8</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>496.8</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1900,23 +1917,23 @@
       <c r="I19">
         <v>496.7</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.42209999999999998</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>238.5</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>495.4</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.39100000000000001</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1941,20 +1958,20 @@
       <c r="I20">
         <v>494.9</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.42349999999999999</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>220.6</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>495.5</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.379</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1979,23 +1996,24 @@
       <c r="I21" s="2">
         <v>495.2</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="2"/>
+      <c r="K21" s="2">
         <v>0.42049999999999998</v>
       </c>
-      <c r="K21" s="2">
+      <c r="L21" s="2">
         <v>229.5</v>
       </c>
-      <c r="L21" s="2">
+      <c r="M21" s="2">
         <v>501.8</v>
       </c>
-      <c r="M21" s="2">
+      <c r="N21" s="2">
         <v>0.372</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2021,7 +2039,7 @@
         <v>495.4</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2047,7 +2065,7 @@
         <v>498.4</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2072,23 +2090,23 @@
       <c r="I24">
         <v>498.4</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.42259999999999998</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>223.1</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>497.9</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.35699999999999998</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2116,19 +2134,19 @@
       <c r="I25">
         <v>163.19999999999999</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0.59</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>141</v>
+      <c r="B26" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>143</v>
@@ -2147,6 +2165,17 @@
       </c>
       <c r="I26">
         <v>160.30000000000001</v>
+      </c>
+      <c r="J26">
+        <v>0.6119</v>
+      </c>
+      <c r="N26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/choices.xlsx
+++ b/choices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806A9E3F-7D94-4630-8EEA-BCD600572EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECC1646-08AF-435B-9FF3-90093A3FD228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="152">
   <si>
     <t>Category</t>
   </si>
@@ -468,13 +468,22 @@
     <t>CV20K</t>
   </si>
   <si>
-    <t>RUNNING</t>
-  </si>
-  <si>
     <t>7838</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
+    <t>(24)+new mean correction</t>
+  </si>
+  <si>
+    <t>07a1</t>
+  </si>
+  <si>
+    <t>New mean correction is in</t>
+  </si>
+  <si>
+    <t>(25)+new FGS invalid handling</t>
+  </si>
+  <si>
+    <t>(27)+no inpainting FGS</t>
   </si>
 </sst>
 </file>
@@ -573,8 +582,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:O27" totalsRowShown="0">
-  <autoFilter ref="A1:O27" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:O29" totalsRowShown="0">
+  <autoFilter ref="A1:O29" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{CD0C5B4F-9DA5-4851-8175-AEDC1F5441EB}" name="ID"/>
     <tableColumn id="2" xr3:uid="{96CE9708-90D1-445F-AD73-473D0FFF2A0B}" name="GIT"/>
@@ -1284,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421DFAC1-2EB9-4491-B20E-B2D987A1FB50}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2143,7 +2152,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -2169,13 +2178,104 @@
       <c r="J26">
         <v>0.6119</v>
       </c>
-      <c r="N26" t="s">
-        <v>146</v>
+      <c r="N26">
+        <v>0.58899999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
       <c r="B27" t="s">
         <v>148</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="G27">
+        <v>0.60219999999999996</v>
+      </c>
+      <c r="H27">
+        <v>223.4</v>
+      </c>
+      <c r="I27">
+        <v>158.1</v>
+      </c>
+      <c r="J27">
+        <v>0.62239999999999995</v>
+      </c>
+      <c r="N27">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="O27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28">
+        <v>0.62350000000000005</v>
+      </c>
+      <c r="G28">
+        <v>0.60429999999999995</v>
+      </c>
+      <c r="H28">
+        <v>211</v>
+      </c>
+      <c r="I28">
+        <v>163.30000000000001</v>
+      </c>
+      <c r="J28">
+        <v>0.62429999999999997</v>
+      </c>
+      <c r="N28">
+        <v>0.59899999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29">
+        <v>0.60529999999999995</v>
+      </c>
+      <c r="H29">
+        <v>211.9</v>
+      </c>
+      <c r="I29">
+        <v>163.1</v>
+      </c>
+      <c r="N29">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/choices.xlsx
+++ b/choices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECC1646-08AF-435B-9FF3-90093A3FD228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DF2DE1-D925-4F10-A636-101F0B2C17E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="157">
   <si>
     <t>Category</t>
   </si>
@@ -484,6 +484,21 @@
   </si>
   <si>
     <t>(27)+no inpainting FGS</t>
+  </si>
+  <si>
+    <t>(28), rebaseline</t>
+  </si>
+  <si>
+    <t>ece8</t>
+  </si>
+  <si>
+    <t>(29)+no mask hot</t>
+  </si>
+  <si>
+    <t>(29)+no flat field</t>
+  </si>
+  <si>
+    <t>(29)+4 background rows</t>
   </si>
 </sst>
 </file>
@@ -582,8 +597,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:O29" totalsRowShown="0">
-  <autoFilter ref="A1:O29" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:O33" totalsRowShown="0">
+  <autoFilter ref="A1:O33" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{CD0C5B4F-9DA5-4851-8175-AEDC1F5441EB}" name="ID"/>
     <tableColumn id="2" xr3:uid="{96CE9708-90D1-445F-AD73-473D0FFF2A0B}" name="GIT"/>
@@ -1293,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421DFAC1-2EB9-4491-B20E-B2D987A1FB50}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2278,6 +2293,119 @@
         <v>0.6</v>
       </c>
     </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <v>0.60529999999999995</v>
+      </c>
+      <c r="H30">
+        <v>211.9</v>
+      </c>
+      <c r="I30">
+        <v>163.1</v>
+      </c>
+      <c r="N30">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31">
+        <v>0.60509999999999997</v>
+      </c>
+      <c r="H31">
+        <v>212.1</v>
+      </c>
+      <c r="I31">
+        <v>162.69999999999999</v>
+      </c>
+      <c r="N31">
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32">
+        <v>0.60560000000000003</v>
+      </c>
+      <c r="H32">
+        <v>211.8</v>
+      </c>
+      <c r="I32">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="N32">
+        <v>0.59799999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33">
+        <v>0.6048</v>
+      </c>
+      <c r="H33">
+        <v>211.2</v>
+      </c>
+      <c r="I33">
+        <v>159.30000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/choices.xlsx
+++ b/choices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DF2DE1-D925-4F10-A636-101F0B2C17E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85E4CA6-5F4D-4AD1-A4E9-5F73740D6BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
   <sheets>
     <sheet name="Choices" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="160">
   <si>
     <t>Category</t>
   </si>
@@ -499,6 +499,15 @@
   </si>
   <si>
     <t>(29)+4 background rows</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>(29)+new AIRS inf</t>
+  </si>
+  <si>
+    <t>(29)+new AIRS 50</t>
   </si>
 </sst>
 </file>
@@ -597,8 +606,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:O33" totalsRowShown="0">
-  <autoFilter ref="A1:O33" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:O35" totalsRowShown="0">
+  <autoFilter ref="A1:O35" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{CD0C5B4F-9DA5-4851-8175-AEDC1F5441EB}" name="ID"/>
     <tableColumn id="2" xr3:uid="{96CE9708-90D1-445F-AD73-473D0FFF2A0B}" name="GIT"/>
@@ -1308,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421DFAC1-2EB9-4491-B20E-B2D987A1FB50}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2406,6 +2415,40 @@
         <v>159.30000000000001</v>
       </c>
     </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/choices.xlsx
+++ b/choices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85E4CA6-5F4D-4AD1-A4E9-5F73740D6BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7121AF4A-1FAF-4FB3-BD61-CA3EAFE3C2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
   <sheets>
     <sheet name="Choices" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="164">
   <si>
     <t>Category</t>
   </si>
@@ -508,6 +508,18 @@
   </si>
   <si>
     <t>(29)+new AIRS 50</t>
+  </si>
+  <si>
+    <t>residuals in covariance matrix</t>
+  </si>
+  <si>
+    <t>fit residual mean</t>
+  </si>
+  <si>
+    <t>fit residual std</t>
+  </si>
+  <si>
+    <t>noise est relative to naïve</t>
   </si>
 </sst>
 </file>
@@ -1317,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421DFAC1-2EB9-4491-B20E-B2D987A1FB50}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,7 +1355,7 @@
     <col min="16" max="16" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -1390,7 +1402,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1419,7 +1431,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1460,8 +1472,11 @@
       <c r="O3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="T3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1490,8 +1505,11 @@
       <c r="N4">
         <v>0.39200000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="T4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1523,8 +1541,11 @@
       <c r="O5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="T5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1553,8 +1574,11 @@
       <c r="N6">
         <v>0.38200000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="T6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1581,7 +1605,7 @@
         <v>496.8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6.5</v>
       </c>
@@ -1613,7 +1637,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1646,7 +1670,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1679,7 +1703,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1712,7 +1736,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1745,7 +1769,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1778,7 +1802,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1808,7 +1832,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1838,7 +1862,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2389,7 +2413,7 @@
         <v>0.59799999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2415,7 +2439,7 @@
         <v>159.30000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2431,8 +2455,20 @@
       <c r="E34" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="H34">
+        <v>210.1</v>
+      </c>
+      <c r="I34">
+        <v>157</v>
+      </c>
+      <c r="N34">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2447,6 +2483,18 @@
       </c>
       <c r="E35" t="s">
         <v>25</v>
+      </c>
+      <c r="G35">
+        <v>0.60629999999999995</v>
+      </c>
+      <c r="H35">
+        <v>211</v>
+      </c>
+      <c r="I35">
+        <v>162.6</v>
+      </c>
+      <c r="N35">
+        <v>0.189</v>
       </c>
     </row>
   </sheetData>

--- a/choices.xlsx
+++ b/choices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7121AF4A-1FAF-4FB3-BD61-CA3EAFE3C2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65B8330-28C8-400B-986C-F4E3F0BC4E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
+    <workbookView xWindow="-28800" yWindow="510" windowWidth="28800" windowHeight="15240" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
   <sheets>
     <sheet name="Choices" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="170">
   <si>
     <t>Category</t>
   </si>
@@ -520,12 +520,33 @@
   </si>
   <si>
     <t>noise est relative to naïve</t>
+  </si>
+  <si>
+    <t>(29)+no sanity checks</t>
+  </si>
+  <si>
+    <t>(29)+new FGS</t>
+  </si>
+  <si>
+    <t>0a3b</t>
+  </si>
+  <si>
+    <t>(35)+fixed FGS mean</t>
+  </si>
+  <si>
+    <t>(36)+poly FGS</t>
+  </si>
+  <si>
+    <t>(37)+new AIRS simpler noise_est</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -574,16 +595,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -618,8 +645,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:O35" totalsRowShown="0">
-  <autoFilter ref="A1:O35" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:O40" totalsRowShown="0">
+  <autoFilter ref="A1:O40" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{CD0C5B4F-9DA5-4851-8175-AEDC1F5441EB}" name="ID"/>
     <tableColumn id="2" xr3:uid="{96CE9708-90D1-445F-AD73-473D0FFF2A0B}" name="GIT"/>
@@ -634,7 +661,7 @@
     <tableColumn id="6" xr3:uid="{6CF5D5A7-DD58-4784-AE79-32A028248CBE}" name="CV kag"/>
     <tableColumn id="9" xr3:uid="{C287B71C-494C-4903-93AA-2F5669CE90AC}" name="RMSF kag"/>
     <tableColumn id="11" xr3:uid="{060A4CB9-C965-40F8-B5CF-1088C09879A9}" name="RMSA kag"/>
-    <tableColumn id="13" xr3:uid="{DEE7C2ED-70DD-4233-BFCD-10F248630020}" name="LB"/>
+    <tableColumn id="13" xr3:uid="{DEE7C2ED-70DD-4233-BFCD-10F248630020}" name="LB" dataDxfId="0"/>
     <tableColumn id="7" xr3:uid="{3C7DE663-78E6-4BAF-B965-54D475799F16}" name="Conclusions"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1329,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421DFAC1-2EB9-4491-B20E-B2D987A1FB50}">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,7 +1451,7 @@
       <c r="K2">
         <v>0.41270000000000001</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="4">
         <v>0.39400000000000002</v>
       </c>
       <c r="O2" t="s">
@@ -1466,7 +1493,7 @@
       <c r="M3">
         <v>497.7</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="4">
         <v>0.39200000000000002</v>
       </c>
       <c r="O3" t="s">
@@ -1502,7 +1529,7 @@
       <c r="M4">
         <v>496.3</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="4">
         <v>0.39200000000000002</v>
       </c>
       <c r="T4" t="s">
@@ -1535,7 +1562,7 @@
       <c r="M5">
         <v>495.4</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="4">
         <v>0.39100000000000001</v>
       </c>
       <c r="O5" t="s">
@@ -1571,7 +1598,7 @@
       <c r="M6">
         <v>518.4</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="4">
         <v>0.38200000000000001</v>
       </c>
       <c r="T6" t="s">
@@ -1604,6 +1631,7 @@
       <c r="M7">
         <v>496.8</v>
       </c>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1630,7 +1658,7 @@
       <c r="M8">
         <v>521.6</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="4">
         <v>0.38100000000000001</v>
       </c>
       <c r="O8" t="s">
@@ -1663,7 +1691,7 @@
       <c r="M9">
         <v>497</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="4">
         <v>0.39200000000000002</v>
       </c>
       <c r="O9" t="s">
@@ -1696,7 +1724,7 @@
       <c r="M10">
         <v>499.1</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="4">
         <v>0.38900000000000001</v>
       </c>
       <c r="O10" t="s">
@@ -1729,7 +1757,7 @@
       <c r="M11">
         <v>495.7</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="4">
         <v>0.37</v>
       </c>
       <c r="O11" t="s">
@@ -1762,7 +1790,7 @@
       <c r="M12">
         <v>496.9</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="4">
         <v>0.35099999999999998</v>
       </c>
       <c r="O12" t="s">
@@ -1795,7 +1823,7 @@
       <c r="M13">
         <v>495.8</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="4">
         <v>0.36399999999999999</v>
       </c>
       <c r="O13" t="s">
@@ -1828,7 +1856,7 @@
       <c r="M14">
         <v>496.6</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="4">
         <v>0.33400000000000002</v>
       </c>
     </row>
@@ -1858,7 +1886,7 @@
       <c r="M15">
         <v>496.5</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="4">
         <v>0.37</v>
       </c>
     </row>
@@ -1888,7 +1916,7 @@
       <c r="M16">
         <v>495.4</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="4">
         <v>0.36</v>
       </c>
       <c r="O16" t="s">
@@ -1921,6 +1949,7 @@
       <c r="M17">
         <v>506.3</v>
       </c>
+      <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1948,6 +1977,7 @@
       <c r="M18">
         <v>496.8</v>
       </c>
+      <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1983,7 +2013,7 @@
       <c r="M19">
         <v>495.4</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="4">
         <v>0.39100000000000001</v>
       </c>
       <c r="O19" t="s">
@@ -2024,7 +2054,7 @@
       <c r="M20">
         <v>495.5</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="4">
         <v>0.379</v>
       </c>
     </row>
@@ -2063,7 +2093,7 @@
       <c r="M21" s="2">
         <v>501.8</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="5">
         <v>0.372</v>
       </c>
       <c r="O21" t="s">
@@ -2095,6 +2125,7 @@
       <c r="I22">
         <v>495.4</v>
       </c>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -2121,6 +2152,7 @@
       <c r="I23">
         <v>498.4</v>
       </c>
+      <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -2156,7 +2188,7 @@
       <c r="M24">
         <v>497.9</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="4">
         <v>0.35699999999999998</v>
       </c>
       <c r="O24" t="s">
@@ -2191,7 +2223,7 @@
       <c r="I25">
         <v>163.19999999999999</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="4">
         <v>0.59</v>
       </c>
     </row>
@@ -2226,7 +2258,7 @@
       <c r="J26">
         <v>0.6119</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="4">
         <v>0.58899999999999997</v>
       </c>
     </row>
@@ -2261,7 +2293,7 @@
       <c r="J27">
         <v>0.62239999999999995</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="4">
         <v>0.59599999999999997</v>
       </c>
       <c r="O27" t="s">
@@ -2296,7 +2328,7 @@
       <c r="J28">
         <v>0.62429999999999997</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="4">
         <v>0.59899999999999998</v>
       </c>
     </row>
@@ -2322,7 +2354,7 @@
       <c r="I29">
         <v>163.1</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="4">
         <v>0.6</v>
       </c>
     </row>
@@ -2351,7 +2383,7 @@
       <c r="I30">
         <v>163.1</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="4">
         <v>0.6</v>
       </c>
     </row>
@@ -2380,7 +2412,7 @@
       <c r="I31">
         <v>162.69999999999999</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="4">
         <v>0.59699999999999998</v>
       </c>
     </row>
@@ -2409,7 +2441,7 @@
       <c r="I32">
         <v>157.69999999999999</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="4">
         <v>0.59799999999999998</v>
       </c>
     </row>
@@ -2438,6 +2470,7 @@
       <c r="I33">
         <v>159.30000000000001</v>
       </c>
+      <c r="N33" s="4"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -2464,7 +2497,7 @@
       <c r="I34">
         <v>157</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="4">
         <v>0.189</v>
       </c>
     </row>
@@ -2493,8 +2526,106 @@
       <c r="I35">
         <v>162.6</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="4">
         <v>0.189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>164</v>
+      </c>
+      <c r="N36" s="4">
+        <v>0.59899999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37">
+        <v>0.6079</v>
+      </c>
+      <c r="H37">
+        <v>199.05</v>
+      </c>
+      <c r="I37">
+        <v>151.75</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38">
+        <v>0.60770000000000002</v>
+      </c>
+      <c r="H38">
+        <v>196.7</v>
+      </c>
+      <c r="I38">
+        <v>148.9</v>
+      </c>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39">
+        <v>0.60709999999999997</v>
+      </c>
+      <c r="H39">
+        <v>228.8</v>
+      </c>
+      <c r="I39">
+        <v>173.5</v>
+      </c>
+      <c r="N39" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40">
+        <v>0.60719999999999996</v>
+      </c>
+      <c r="H40">
+        <v>232.3</v>
+      </c>
+      <c r="I40">
+        <v>178.4</v>
+      </c>
+      <c r="N40" s="4">
+        <v>0.59899999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/choices.xlsx
+++ b/choices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65B8330-28C8-400B-986C-F4E3F0BC4E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C24624-D14A-45D4-99B8-72C8461B39CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="510" windowWidth="28800" windowHeight="15240" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
   <sheets>
     <sheet name="Choices" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="175">
   <si>
     <t>Category</t>
   </si>
@@ -538,6 +538,21 @@
   </si>
   <si>
     <t>(37)+new AIRS simpler noise_est</t>
+  </si>
+  <si>
+    <t>RMSFm loc</t>
+  </si>
+  <si>
+    <t>RMSAm loc</t>
+  </si>
+  <si>
+    <t>(38)+mask hot FGS</t>
+  </si>
+  <si>
+    <t>(38)+mask hot AIRS</t>
+  </si>
+  <si>
+    <t>(38)+poly AIRS</t>
   </si>
 </sst>
 </file>
@@ -645,9 +660,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:O40" totalsRowShown="0">
-  <autoFilter ref="A1:O40" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:Q43" totalsRowShown="0">
+  <autoFilter ref="A1:Q43" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{CD0C5B4F-9DA5-4851-8175-AEDC1F5441EB}" name="ID"/>
     <tableColumn id="2" xr3:uid="{96CE9708-90D1-445F-AD73-473D0FFF2A0B}" name="GIT"/>
     <tableColumn id="12" xr3:uid="{F6596AEB-9D64-4014-88C3-3FBD71A31D55}" name="Over"/>
@@ -656,7 +671,9 @@
     <tableColumn id="14" xr3:uid="{430D115E-932D-4B28-BA1A-9F3F8BD0393B}" name="CV20"/>
     <tableColumn id="5" xr3:uid="{ADA1A98F-3920-41D3-BAA1-B8AE26FFD47F}" name="CV loc"/>
     <tableColumn id="8" xr3:uid="{6CF4D6D5-8CEB-444F-A2A2-3A2A90BFAC66}" name="RMSF loc"/>
+    <tableColumn id="17" xr3:uid="{420DE5C5-B039-4342-808B-2BF7F532CD00}" name="RMSFm loc"/>
     <tableColumn id="10" xr3:uid="{36A8478E-9821-4ACA-9D75-7D077500894E}" name="RMSA loc"/>
+    <tableColumn id="18" xr3:uid="{C7E396DE-E2F9-41C6-B025-E2C5BB559955}" name="RMSAm loc"/>
     <tableColumn id="15" xr3:uid="{4872B848-2CDF-4034-A7D8-381009C570B8}" name="CV20K"/>
     <tableColumn id="6" xr3:uid="{6CF5D5A7-DD58-4784-AE79-32A028248CBE}" name="CV kag"/>
     <tableColumn id="9" xr3:uid="{C287B71C-494C-4903-93AA-2F5669CE90AC}" name="RMSF kag"/>
@@ -1356,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421DFAC1-2EB9-4491-B20E-B2D987A1FB50}">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,17 +1389,19 @@
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.85546875" customWidth="1"/>
-    <col min="16" max="16" width="6" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="38.85546875" customWidth="1"/>
+    <col min="18" max="18" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -1408,28 +1427,34 @@
         <v>48</v>
       </c>
       <c r="I1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" t="s">
         <v>145</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>50</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>51</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1448,17 +1473,17 @@
       <c r="G2">
         <v>0.41249999999999998</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>0.41270000000000001</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>0.39400000000000002</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1481,29 +1506,29 @@
       <c r="H3">
         <v>296.60000000000002</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>498.7</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>0.41770000000000002</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>297.3</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>497.7</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>0.39200000000000002</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>61</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1520,23 +1545,23 @@
         <v>25</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="K4">
+      <c r="M4">
         <v>0.42020000000000002</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>265.10000000000002</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>496.3</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>0.39200000000000002</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1553,26 +1578,26 @@
         <v>27</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="K5">
+      <c r="M5">
         <v>0.42209999999999998</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>238.5</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>495.4</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.39100000000000001</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>67</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1589,23 +1614,23 @@
         <v>27</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="K6">
+      <c r="M6">
         <v>0.41170000000000001</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>273.60000000000002</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>518.4</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>0.38200000000000001</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1622,18 +1647,18 @@
         <v>27</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="K7">
+      <c r="M7">
         <v>0.42180000000000001</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>234.5</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>496.8</v>
       </c>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6.5</v>
       </c>
@@ -1649,23 +1674,23 @@
       <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>0.41060000000000002</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>275.8</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>521.6</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <v>0.38100000000000001</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1682,23 +1707,23 @@
         <v>27</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="K9">
+      <c r="M9">
         <v>0.4204</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>255.6</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>497</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>0.39200000000000002</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1715,23 +1740,23 @@
         <v>27</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="K10">
+      <c r="M10">
         <v>0.41880000000000001</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>260.39999999999998</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>499.1</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>0.38900000000000001</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1748,23 +1773,23 @@
         <v>27</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="K11">
+      <c r="M11">
         <v>0.42349999999999999</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>219.8</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>495.7</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>0.37</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1781,23 +1806,23 @@
         <v>27</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="K12">
+      <c r="M12">
         <v>0.4219</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>235.6</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>496.9</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>0.35099999999999998</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1814,23 +1839,23 @@
         <v>27</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="K13">
+      <c r="M13">
         <v>0.42009999999999997</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>261.89999999999998</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>495.8</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>0.36399999999999999</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1847,20 +1872,20 @@
         <v>27</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="K14">
+      <c r="M14">
         <v>0.4214</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>243.6</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>496.6</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1877,20 +1902,20 @@
         <v>27</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="K15">
+      <c r="M15">
         <v>0.42309999999999998</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>222.2</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>496.5</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>0.37</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1907,23 +1932,23 @@
         <v>27</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="K16">
+      <c r="M16">
         <v>0.4229</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>229.4</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>495.4</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.36</v>
       </c>
-      <c r="O16" t="s">
+      <c r="Q16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1940,18 +1965,18 @@
         <v>27</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="K17">
+      <c r="M17">
         <v>0.4194</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>226.8</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>506.3</v>
       </c>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1968,18 +1993,18 @@
         <v>27</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="K18">
+      <c r="M18">
         <v>0.42209999999999998</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>231.8</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>496.8</v>
       </c>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2001,26 +2026,26 @@
       <c r="H19">
         <v>237.4</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>496.7</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>0.42209999999999998</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>238.5</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>495.4</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <v>0.39100000000000001</v>
       </c>
-      <c r="O19" t="s">
+      <c r="Q19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2042,23 +2067,23 @@
       <c r="H20">
         <v>228.9</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>494.9</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>0.42349999999999999</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>220.6</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>495.5</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>0.379</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2080,27 +2105,29 @@
       <c r="H21" s="2">
         <v>236.6</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2">
         <v>495.2</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2">
         <v>0.42049999999999998</v>
       </c>
-      <c r="L21" s="2">
+      <c r="N21" s="2">
         <v>229.5</v>
       </c>
-      <c r="M21" s="2">
+      <c r="O21" s="2">
         <v>501.8</v>
       </c>
-      <c r="N21" s="5">
+      <c r="P21" s="5">
         <v>0.372</v>
       </c>
-      <c r="O21" t="s">
+      <c r="Q21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2122,12 +2149,12 @@
       <c r="H22">
         <v>236.3</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>495.4</v>
       </c>
-      <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2149,12 +2176,12 @@
       <c r="H23">
         <v>221</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>498.4</v>
       </c>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2176,26 +2203,26 @@
       <c r="H24">
         <v>221.1</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>498.4</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>0.42259999999999998</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>223.1</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>497.9</v>
       </c>
-      <c r="N24" s="4">
+      <c r="P24" s="4">
         <v>0.35699999999999998</v>
       </c>
-      <c r="O24" t="s">
+      <c r="Q24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2220,14 +2247,14 @@
       <c r="H25">
         <v>218</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>163.19999999999999</v>
       </c>
-      <c r="N25" s="4">
+      <c r="P25" s="4">
         <v>0.59</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2252,17 +2279,17 @@
       <c r="H26">
         <v>219.7</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>160.30000000000001</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>0.6119</v>
       </c>
-      <c r="N26" s="4">
+      <c r="P26" s="4">
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2287,20 +2314,20 @@
       <c r="H27">
         <v>223.4</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>158.1</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>0.62239999999999995</v>
       </c>
-      <c r="N27" s="4">
+      <c r="P27" s="4">
         <v>0.59599999999999997</v>
       </c>
-      <c r="O27" t="s">
+      <c r="Q27" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2322,17 +2349,17 @@
       <c r="H28">
         <v>211</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>163.30000000000001</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>0.62429999999999997</v>
       </c>
-      <c r="N28" s="4">
+      <c r="P28" s="4">
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2351,14 +2378,14 @@
       <c r="H29">
         <v>211.9</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>163.1</v>
       </c>
-      <c r="N29" s="4">
+      <c r="P29" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2381,13 +2408,19 @@
         <v>211.9</v>
       </c>
       <c r="I30">
+        <v>74.7</v>
+      </c>
+      <c r="J30">
         <v>163.1</v>
       </c>
-      <c r="N30" s="4">
+      <c r="K30">
+        <v>59.5</v>
+      </c>
+      <c r="P30" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2409,14 +2442,14 @@
       <c r="H31">
         <v>212.1</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>162.69999999999999</v>
       </c>
-      <c r="N31" s="4">
+      <c r="P31" s="4">
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2438,14 +2471,14 @@
       <c r="H32">
         <v>211.8</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>157.69999999999999</v>
       </c>
-      <c r="N32" s="4">
+      <c r="P32" s="4">
         <v>0.59799999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2467,12 +2500,12 @@
       <c r="H33">
         <v>211.2</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>159.30000000000001</v>
       </c>
-      <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2494,14 +2527,14 @@
       <c r="H34">
         <v>210.1</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>157</v>
       </c>
-      <c r="N34" s="4">
+      <c r="P34" s="4">
         <v>0.189</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2523,25 +2556,25 @@
       <c r="H35">
         <v>211</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>162.6</v>
       </c>
-      <c r="N35" s="4">
+      <c r="P35" s="4">
         <v>0.189</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="D36" t="s">
         <v>164</v>
       </c>
-      <c r="N36" s="4">
+      <c r="P36" s="4">
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2564,13 +2597,22 @@
         <v>199.05</v>
       </c>
       <c r="I37">
+        <v>64.7</v>
+      </c>
+      <c r="J37">
         <v>151.75</v>
       </c>
-      <c r="N37" s="4">
+      <c r="K37">
+        <v>58.9</v>
+      </c>
+      <c r="P37" s="4">
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
       <c r="D38" t="s">
         <v>167</v>
       </c>
@@ -2584,11 +2626,22 @@
         <v>196.7</v>
       </c>
       <c r="I38">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="J38">
         <v>148.9</v>
       </c>
-      <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>59.2</v>
+      </c>
+      <c r="P38" s="4">
+        <v>0.59899999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
       <c r="D39" t="s">
         <v>168</v>
       </c>
@@ -2602,13 +2655,22 @@
         <v>228.8</v>
       </c>
       <c r="I39">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="J39">
         <v>173.5</v>
       </c>
-      <c r="N39" s="4">
+      <c r="K39">
+        <v>58.9</v>
+      </c>
+      <c r="P39" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
       <c r="D40" t="s">
         <v>169</v>
       </c>
@@ -2622,10 +2684,67 @@
         <v>232.3</v>
       </c>
       <c r="I40">
+        <v>63.9</v>
+      </c>
+      <c r="J40">
         <v>178.4</v>
       </c>
-      <c r="N40" s="4">
+      <c r="K40">
+        <v>57.6</v>
+      </c>
+      <c r="P40" s="4">
         <v>0.59899999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>172</v>
+      </c>
+      <c r="P41" s="4">
+        <v>0.59899999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>173</v>
+      </c>
+      <c r="P42" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43">
+        <v>0.60089999999999999</v>
+      </c>
+      <c r="H43">
+        <v>209.8</v>
+      </c>
+      <c r="I43">
+        <v>63.3</v>
+      </c>
+      <c r="J43">
+        <v>154.9</v>
+      </c>
+      <c r="K43">
+        <v>59.7</v>
+      </c>
+      <c r="P43" s="4">
+        <v>0.59799999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/choices.xlsx
+++ b/choices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C24624-D14A-45D4-99B8-72C8461B39CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7B3DD2-8049-403F-ADF7-A733B9FA25DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="180">
   <si>
     <t>Category</t>
   </si>
@@ -553,6 +553,21 @@
   </si>
   <si>
     <t>(38)+poly AIRS</t>
+  </si>
+  <si>
+    <t>(41)+fudger 2</t>
+  </si>
+  <si>
+    <t>d740</t>
+  </si>
+  <si>
+    <t>cb07</t>
+  </si>
+  <si>
+    <t>(42)+couple FGS AIRS</t>
+  </si>
+  <si>
+    <t>Poly AIRS is dubious</t>
   </si>
 </sst>
 </file>
@@ -660,8 +675,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:Q43" totalsRowShown="0">
-  <autoFilter ref="A1:Q43" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:Q45" totalsRowShown="0">
+  <autoFilter ref="A1:Q45" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{CD0C5B4F-9DA5-4851-8175-AEDC1F5441EB}" name="ID"/>
     <tableColumn id="2" xr3:uid="{96CE9708-90D1-445F-AD73-473D0FFF2A0B}" name="GIT"/>
@@ -1373,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421DFAC1-2EB9-4491-B20E-B2D987A1FB50}">
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2478,7 +2493,7 @@
         <v>0.59799999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2505,7 +2520,7 @@
       </c>
       <c r="P33" s="4"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2534,7 +2549,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2563,7 +2578,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2574,7 +2589,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2609,7 +2624,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2638,7 +2653,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2667,7 +2682,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2696,7 +2711,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2707,7 +2722,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2718,10 +2733,16 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
+      <c r="B43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
       <c r="D43" t="s">
         <v>174</v>
       </c>
@@ -2744,8 +2765,65 @@
         <v>59.7</v>
       </c>
       <c r="P43" s="4">
-        <v>0.59799999999999998</v>
-      </c>
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44">
+        <v>0.60309999999999997</v>
+      </c>
+      <c r="H44">
+        <v>209.8</v>
+      </c>
+      <c r="I44">
+        <v>63.3</v>
+      </c>
+      <c r="J44">
+        <v>154.9</v>
+      </c>
+      <c r="K44">
+        <v>59.7</v>
+      </c>
+      <c r="P44" s="4">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="P45" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/choices.xlsx
+++ b/choices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7B3DD2-8049-403F-ADF7-A733B9FA25DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3932EDE0-8A44-4190-8A02-F858D559D23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
@@ -1391,7 +1391,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2823,6 +2823,21 @@
       <c r="E45" t="s">
         <v>25</v>
       </c>
+      <c r="G45">
+        <v>0.60580000000000001</v>
+      </c>
+      <c r="H45">
+        <v>201</v>
+      </c>
+      <c r="I45">
+        <v>56.7</v>
+      </c>
+      <c r="J45">
+        <v>156.9</v>
+      </c>
+      <c r="K45">
+        <v>61.4</v>
+      </c>
       <c r="P45" s="4"/>
     </row>
   </sheetData>

--- a/choices.xlsx
+++ b/choices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3932EDE0-8A44-4190-8A02-F858D559D23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1E5937-23DD-459E-BDFA-BCA46E31E813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
@@ -1391,7 +1391,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2838,7 +2838,9 @@
       <c r="K45">
         <v>61.4</v>
       </c>
-      <c r="P45" s="4"/>
+      <c r="P45" s="4">
+        <v>0.60499999999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/choices.xlsx
+++ b/choices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1E5937-23DD-459E-BDFA-BCA46E31E813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D06D93D-EAFA-40B1-8502-6DFC1BD6A63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="183">
   <si>
     <t>Category</t>
   </si>
@@ -568,6 +568,15 @@
   </si>
   <si>
     <t>Poly AIRS is dubious</t>
+  </si>
+  <si>
+    <t>d21b</t>
+  </si>
+  <si>
+    <t>(43)+new transit prior</t>
+  </si>
+  <si>
+    <t>(44)+fudger3</t>
   </si>
 </sst>
 </file>
@@ -675,8 +684,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:Q45" totalsRowShown="0">
-  <autoFilter ref="A1:Q45" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:Q47" totalsRowShown="0">
+  <autoFilter ref="A1:Q47" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{CD0C5B4F-9DA5-4851-8175-AEDC1F5441EB}" name="ID"/>
     <tableColumn id="2" xr3:uid="{96CE9708-90D1-445F-AD73-473D0FFF2A0B}" name="GIT"/>
@@ -1388,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421DFAC1-2EB9-4491-B20E-B2D987A1FB50}">
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2842,6 +2851,74 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" t="s">
+        <v>181</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46">
+        <v>0.60580000000000001</v>
+      </c>
+      <c r="H46">
+        <v>201.2</v>
+      </c>
+      <c r="I46">
+        <v>56.7</v>
+      </c>
+      <c r="J46">
+        <v>157.1</v>
+      </c>
+      <c r="K46">
+        <v>61.5</v>
+      </c>
+      <c r="P46" s="4">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47">
+        <v>0.60570000000000002</v>
+      </c>
+      <c r="H47">
+        <v>201.8</v>
+      </c>
+      <c r="I47">
+        <v>56.5</v>
+      </c>
+      <c r="J47">
+        <v>157</v>
+      </c>
+      <c r="K47">
+        <v>61.2</v>
+      </c>
+      <c r="P47" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/choices.xlsx
+++ b/choices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D06D93D-EAFA-40B1-8502-6DFC1BD6A63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF474E9-D858-4010-A8B4-2752ECD19D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="185">
   <si>
     <t>Category</t>
   </si>
@@ -577,6 +577,12 @@
   </si>
   <si>
     <t>(44)+fudger3</t>
+  </si>
+  <si>
+    <t>a029</t>
+  </si>
+  <si>
+    <t>(45)+tweak loader, fallbacks in simple, unlock t0</t>
   </si>
 </sst>
 </file>
@@ -684,8 +690,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:Q47" totalsRowShown="0">
-  <autoFilter ref="A1:Q47" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:Q48" totalsRowShown="0">
+  <autoFilter ref="A1:Q48" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{CD0C5B4F-9DA5-4851-8175-AEDC1F5441EB}" name="ID"/>
     <tableColumn id="2" xr3:uid="{96CE9708-90D1-445F-AD73-473D0FFF2A0B}" name="GIT"/>
@@ -1397,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421DFAC1-2EB9-4491-B20E-B2D987A1FB50}">
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2917,7 +2923,24 @@
       <c r="K47">
         <v>61.2</v>
       </c>
-      <c r="P47" s="4"/>
+      <c r="P47" s="4">
+        <v>0.57699999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>184</v>
+      </c>
+      <c r="P48" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/choices.xlsx
+++ b/choices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF474E9-D858-4010-A8B4-2752ECD19D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B4ED5F-4D67-4AFE-9FAF-E90D276B37BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
+    <workbookView xWindow="-28800" yWindow="345" windowWidth="28800" windowHeight="15240" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
   <sheets>
     <sheet name="Choices" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="193">
   <si>
     <t>Category</t>
   </si>
@@ -582,7 +582,31 @@
     <t>a029</t>
   </si>
   <si>
-    <t>(45)+tweak loader, fallbacks in simple, unlock t0</t>
+    <t>(44)+tweak loader, fallbacks in simple, unlock t0</t>
+  </si>
+  <si>
+    <t>(46)+regularization in simple and GP</t>
+  </si>
+  <si>
+    <t>(47)+force Kepler</t>
+  </si>
+  <si>
+    <t>(48)+fudge based on var</t>
+  </si>
+  <si>
+    <t>(49)+adjust based on u</t>
+  </si>
+  <si>
+    <t>Not using force Kepler</t>
+  </si>
+  <si>
+    <t>(47)+fudge based on var</t>
+  </si>
+  <si>
+    <t>(51)+adjust based on u</t>
+  </si>
+  <si>
+    <t>(52)+fudge based on multi, multi-transit</t>
   </si>
 </sst>
 </file>
@@ -690,8 +714,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:Q48" totalsRowShown="0">
-  <autoFilter ref="A1:Q48" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:Q55" totalsRowShown="0">
+  <autoFilter ref="A1:Q55" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{CD0C5B4F-9DA5-4851-8175-AEDC1F5441EB}" name="ID"/>
     <tableColumn id="2" xr3:uid="{96CE9708-90D1-445F-AD73-473D0FFF2A0B}" name="GIT"/>
@@ -1403,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421DFAC1-2EB9-4491-B20E-B2D987A1FB50}">
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2940,7 +2964,131 @@
       <c r="D48" t="s">
         <v>184</v>
       </c>
-      <c r="P48" s="4"/>
+      <c r="E48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="P48" s="4">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="D49" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49">
+        <v>0.62139999999999995</v>
+      </c>
+      <c r="P49" s="4">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>186</v>
+      </c>
+      <c r="E50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50">
+        <v>0.62280000000000002</v>
+      </c>
+      <c r="P50" s="4">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s">
+        <v>187</v>
+      </c>
+      <c r="E51" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51">
+        <v>0.63139999999999996</v>
+      </c>
+      <c r="P51" s="4"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>188</v>
+      </c>
+      <c r="E52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52">
+        <v>0.63629999999999998</v>
+      </c>
+      <c r="P52" s="4"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
+        <v>190</v>
+      </c>
+      <c r="E53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53">
+        <v>0.63029999999999997</v>
+      </c>
+      <c r="P53" s="4">
+        <v>0.61799999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>191</v>
+      </c>
+      <c r="E54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54">
+        <v>0.63519999999999999</v>
+      </c>
+      <c r="P54" s="4">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="D55" t="s">
+        <v>192</v>
+      </c>
+      <c r="E55" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55">
+        <v>0.63990000000000002</v>
+      </c>
+      <c r="P55" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/choices.xlsx
+++ b/choices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B4ED5F-4D67-4AFE-9FAF-E90D276B37BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F89C1A8-2E09-4584-B15C-173A683149D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="345" windowWidth="28800" windowHeight="15240" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
+    <workbookView xWindow="-28800" yWindow="345" windowWidth="28800" windowHeight="15135" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
   <sheets>
     <sheet name="Choices" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="195">
   <si>
     <t>Category</t>
   </si>
@@ -607,6 +607,12 @@
   </si>
   <si>
     <t>(52)+fudge based on multi, multi-transit</t>
+  </si>
+  <si>
+    <t>(52)+outer multi</t>
+  </si>
+  <si>
+    <t>Partial</t>
   </si>
 </sst>
 </file>
@@ -714,8 +720,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:Q55" totalsRowShown="0">
-  <autoFilter ref="A1:Q55" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:Q56" totalsRowShown="0">
+  <autoFilter ref="A1:Q56" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{CD0C5B4F-9DA5-4851-8175-AEDC1F5441EB}" name="ID"/>
     <tableColumn id="2" xr3:uid="{96CE9708-90D1-445F-AD73-473D0FFF2A0B}" name="GIT"/>
@@ -1427,10 +1433,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421DFAC1-2EB9-4491-B20E-B2D987A1FB50}">
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="Q52" sqref="Q52"/>
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3088,7 +3094,21 @@
       <c r="G55">
         <v>0.63990000000000002</v>
       </c>
-      <c r="P55" s="4"/>
+      <c r="P55" s="4">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="D56" t="s">
+        <v>193</v>
+      </c>
+      <c r="E56" t="s">
+        <v>194</v>
+      </c>
+      <c r="P56" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/choices.xlsx
+++ b/choices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F89C1A8-2E09-4584-B15C-173A683149D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BFC2D2-3FA3-435B-9A82-0C01F9EE69A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="345" windowWidth="28800" windowHeight="15135" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="197">
   <si>
     <t>Category</t>
   </si>
@@ -609,10 +609,16 @@
     <t>(52)+fudge based on multi, multi-transit</t>
   </si>
   <si>
-    <t>(52)+outer multi</t>
-  </si>
-  <si>
     <t>Partial</t>
+  </si>
+  <si>
+    <t>(52)+converged transit param prior</t>
+  </si>
+  <si>
+    <t>(52)+outer multi variance test only</t>
+  </si>
+  <si>
+    <t>(54), new baseline (var 1.4)</t>
   </si>
 </sst>
 </file>
@@ -720,8 +726,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:Q56" totalsRowShown="0">
-  <autoFilter ref="A1:Q56" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}" name="Table2" displayName="Table2" ref="A1:Q58" totalsRowShown="0">
+  <autoFilter ref="A1:Q58" xr:uid="{162C9714-ECF8-452D-98E8-68CBD3A0A6AF}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{CD0C5B4F-9DA5-4851-8175-AEDC1F5441EB}" name="ID"/>
     <tableColumn id="2" xr3:uid="{96CE9708-90D1-445F-AD73-473D0FFF2A0B}" name="GIT"/>
@@ -1433,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421DFAC1-2EB9-4491-B20E-B2D987A1FB50}">
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3103,12 +3109,47 @@
         <v>54</v>
       </c>
       <c r="D56" t="s">
+        <v>195</v>
+      </c>
+      <c r="E56" t="s">
         <v>193</v>
       </c>
-      <c r="E56" t="s">
+      <c r="G56">
+        <v>0.63519999999999999</v>
+      </c>
+      <c r="P56" s="4"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="D57" t="s">
         <v>194</v>
       </c>
-      <c r="P56" s="4"/>
+      <c r="E57" t="s">
+        <v>193</v>
+      </c>
+      <c r="G57">
+        <v>0.63539999999999996</v>
+      </c>
+      <c r="P57" s="4"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="D58" t="s">
+        <v>196</v>
+      </c>
+      <c r="E58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58">
+        <v>0.63539999999999996</v>
+      </c>
+      <c r="P58" s="4">
+        <v>0.626</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/choices.xlsx
+++ b/choices.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ariel2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BFC2D2-3FA3-435B-9A82-0C01F9EE69A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C88AD5-FAB8-4603-A936-EDD487E54657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="345" windowWidth="28800" windowHeight="15135" activeTab="1" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{A07B647F-CF3A-4B09-9617-55BE27F02610}"/>
   </bookViews>
   <sheets>
     <sheet name="Choices" sheetId="1" r:id="rId1"/>
     <sheet name="Submissions" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="219">
   <si>
     <t>Category</t>
   </si>
@@ -619,6 +620,72 @@
   </si>
   <si>
     <t>(54), new baseline (var 1.4)</t>
+  </si>
+  <si>
+    <t>Supersample</t>
+  </si>
+  <si>
+    <t>min_transit_scaling_factor</t>
+  </si>
+  <si>
+    <t>n_samples_sigma_est</t>
+  </si>
+  <si>
+    <t>mask_hot</t>
+  </si>
+  <si>
+    <t>n_comp 3 for background AIRS</t>
+  </si>
+  <si>
+    <t>remove_background_n_rows for AIRS</t>
+  </si>
+  <si>
+    <t>remove_background_n_pixels for FGS</t>
+  </si>
+  <si>
+    <t>time binning</t>
+  </si>
+  <si>
+    <t>ok_threshold</t>
+  </si>
+  <si>
+    <t>update rate with many iters</t>
+  </si>
+  <si>
+    <t>Push performance</t>
+  </si>
+  <si>
+    <t>Moderately safe</t>
+  </si>
+  <si>
+    <t>Very safe</t>
+  </si>
+  <si>
+    <t>Chop</t>
+  </si>
+  <si>
+    <t>Fallback</t>
+  </si>
+  <si>
+    <t>Sigma</t>
+  </si>
+  <si>
+    <t>Separate tuning</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Offline</t>
+  </si>
+  <si>
+    <t>TO RUN</t>
+  </si>
+  <si>
+    <t>(Maybe) push perforamnce with mask hot</t>
+  </si>
+  <si>
+    <t>Very safe w/o sigma change</t>
   </si>
 </sst>
 </file>
@@ -706,13 +773,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6CA98BC4-9283-42D5-A195-DA0C9C245AC9}" name="Table1" displayName="Table1" ref="A1:F22" totalsRowShown="0">
-  <autoFilter ref="A1:F22" xr:uid="{6CA98BC4-9283-42D5-A195-DA0C9C245AC9}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Verify"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F22" xr:uid="{6CA98BC4-9283-42D5-A195-DA0C9C245AC9}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B6616B63-F1E7-417B-975B-CF7294D71629}" name="Category"/>
     <tableColumn id="2" xr3:uid="{8F4FDD69-72A5-4F1F-ABA4-5AAD37F6314F}" name="Choice"/>
@@ -1048,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BDE5C8-CEC6-4FD1-A927-959E65EB6722}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1102,7 +1163,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
@@ -1118,7 +1179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1132,7 +1193,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1149,7 +1210,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1189,7 +1250,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1237,7 +1298,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1257,7 +1318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1299,7 +1360,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1319,7 +1380,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1339,7 +1400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1359,7 +1420,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1373,7 +1434,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1387,7 +1448,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1401,7 +1462,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1415,7 +1476,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1427,6 +1488,56 @@
       </c>
       <c r="D22" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1441,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421DFAC1-2EB9-4491-B20E-B2D987A1FB50}">
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3528,4 +3639,139 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0427EA-57CF-434C-97EE-94C30D6D5887}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>